--- a/data/unisa/AdvancedAnalytic1/assignment2/MtGambierRainfall.xlsx
+++ b/data/unisa/AdvancedAnalytic1/assignment2/MtGambierRainfall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Time Series\2023\Assignment Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5720EEA7-8E78-4D55-82E2-290129476706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7902AC-E1E5-4630-B088-EE0D55DD3DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{99186263-BE27-491E-906C-CBF74AEC9212}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{99186263-BE27-491E-906C-CBF74AEC9212}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -399,15 +399,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04EAA096-60F3-4979-9C65-115B52381414}">
-  <dimension ref="A1:D605"/>
+  <dimension ref="A1:D601"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D605"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -421,7 +421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1950</v>
       </c>
@@ -435,7 +435,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1950</v>
       </c>
@@ -450,7 +450,7 @@
         <v>41.9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1950</v>
       </c>
@@ -465,7 +465,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1950</v>
       </c>
@@ -480,7 +480,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1950</v>
       </c>
@@ -495,7 +495,7 @@
         <v>52.3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1950</v>
       </c>
@@ -510,7 +510,7 @@
         <v>38.200000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1950</v>
       </c>
@@ -525,7 +525,7 @@
         <v>74.099999999999994</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1950</v>
       </c>
@@ -540,7 +540,7 @@
         <v>83.6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1950</v>
       </c>
@@ -555,7 +555,7 @@
         <v>69.599999999999994</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1950</v>
       </c>
@@ -570,7 +570,7 @@
         <v>78.900000000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1950</v>
       </c>
@@ -585,7 +585,7 @@
         <v>38.4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1950</v>
       </c>
@@ -600,7 +600,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1951</v>
       </c>
@@ -615,7 +615,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1951</v>
       </c>
@@ -630,7 +630,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1951</v>
       </c>
@@ -645,7 +645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1951</v>
       </c>
@@ -660,7 +660,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1951</v>
       </c>
@@ -675,7 +675,7 @@
         <v>159.6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1951</v>
       </c>
@@ -690,7 +690,7 @@
         <v>46.5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1951</v>
       </c>
@@ -705,7 +705,7 @@
         <v>139.9</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1951</v>
       </c>
@@ -720,7 +720,7 @@
         <v>141.19999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1951</v>
       </c>
@@ -735,7 +735,7 @@
         <v>40.4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1951</v>
       </c>
@@ -750,7 +750,7 @@
         <v>103.4</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>1951</v>
       </c>
@@ -765,7 +765,7 @@
         <v>42.5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1951</v>
       </c>
@@ -780,7 +780,7 @@
         <v>54.3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>1952</v>
       </c>
@@ -795,7 +795,7 @@
         <v>78.900000000000006</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>1952</v>
       </c>
@@ -810,7 +810,7 @@
         <v>31.9</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>1952</v>
       </c>
@@ -825,7 +825,7 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>1952</v>
       </c>
@@ -840,7 +840,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1952</v>
       </c>
@@ -855,7 +855,7 @@
         <v>92.9</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>1952</v>
       </c>
@@ -870,7 +870,7 @@
         <v>118.2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>1952</v>
       </c>
@@ -885,7 +885,7 @@
         <v>76.2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>1952</v>
       </c>
@@ -900,7 +900,7 @@
         <v>84.9</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>1952</v>
       </c>
@@ -915,7 +915,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>1952</v>
       </c>
@@ -930,7 +930,7 @@
         <v>50.4</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>1952</v>
       </c>
@@ -945,7 +945,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>1952</v>
       </c>
@@ -960,7 +960,7 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>1953</v>
       </c>
@@ -975,7 +975,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>1953</v>
       </c>
@@ -990,7 +990,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>1953</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>1953</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>1953</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>1953</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>136.19999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>1953</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>112.2</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>1953</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>1953</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>78.8</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>1953</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>39.1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>1953</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>84.6</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>1953</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>56.4</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>1954</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>1954</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>1954</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>1954</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>96.3</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>1954</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>64.8</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>1954</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>82.3</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>1954</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>55.3</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>1954</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>1954</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>57.5</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>1954</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>36.299999999999997</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>1954</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>44.9</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>1954</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>41.3</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>1955</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>1955</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>1955</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>1955</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>95.6</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>1955</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>160.30000000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>1955</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>147.19999999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>1955</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>1955</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>146.6</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>1955</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>56.1</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>1955</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>1955</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>49.3</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>1955</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>30.3</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>1956</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>1956</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>1956</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>1956</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>155.5</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>1956</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>42.4</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>1956</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>154.5</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>1956</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>1956</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>101.8</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>1956</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>72.2</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>1956</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>65.900000000000006</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>1956</v>
       </c>
@@ -1665,7 +1665,7 @@
         <v>33.700000000000003</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>1956</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>45.5</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>1957</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>1957</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>1957</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>1957</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>68.3</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>1957</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>67.5</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>1957</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>1957</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>1957</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>65.2</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>1957</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>1957</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>64.5</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>1957</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>61.1</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>1957</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>33.799999999999997</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>1958</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>1958</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>1958</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>1958</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>1958</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>123.6</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>1958</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>41.9</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>1958</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>145.4</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>1958</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>124.1</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>1958</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>53.3</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>1958</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>85.7</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>1958</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>41.6</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>1958</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>1959</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>1959</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>42.3</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>1959</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>55.8</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>1959</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>1959</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>1959</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>44.2</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>1959</v>
       </c>
@@ -2145,7 +2145,7 @@
         <v>49.1</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>1959</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>91.5</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>1959</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>59.3</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>1959</v>
       </c>
@@ -2190,7 +2190,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>1959</v>
       </c>
@@ -2205,7 +2205,7 @@
         <v>24.3</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>1959</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>55.1</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>1960</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>49.6</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>1960</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>99.7</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>1960</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>28.4</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>1960</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>1960</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>121.9</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>1960</v>
       </c>
@@ -2310,7 +2310,7 @@
         <v>62.9</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>1960</v>
       </c>
@@ -2325,7 +2325,7 @@
         <v>111.9</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>1960</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>83.5</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>1960</v>
       </c>
@@ -2355,7 +2355,7 @@
         <v>89.9</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>1960</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>53.9</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>1960</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>33.6</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>1960</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>1961</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>1961</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>1961</v>
       </c>
@@ -2445,7 +2445,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>1961</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>84.5</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>1961</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>42.1</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>1961</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>67.7</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>1961</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>84.1</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>1961</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>38.4</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>1961</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>52.3</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>1961</v>
       </c>
@@ -2550,7 +2550,7 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>1961</v>
       </c>
@@ -2565,7 +2565,7 @@
         <v>31.2</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>1961</v>
       </c>
@@ -2580,7 +2580,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>1962</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>1962</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>1962</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>1962</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>1962</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>106.8</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>1962</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>148.6</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>1962</v>
       </c>
@@ -2685,7 +2685,7 @@
         <v>46.2</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>1962</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>70.400000000000006</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>1962</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>61.7</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>1962</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>100.6</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>1962</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>29.2</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>1962</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>30.1</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>1963</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>126.2</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>1963</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>1963</v>
       </c>
@@ -2805,7 +2805,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>1963</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>1963</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>51.4</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>1963</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>71.400000000000006</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>1963</v>
       </c>
@@ -2865,7 +2865,7 @@
         <v>120.8</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>1963</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>85.8</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>1963</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>94.1</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>1963</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>1963</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>1963</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>1964</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>1964</v>
       </c>
@@ -2970,7 +2970,7 @@
         <v>31.3</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>1964</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>41.5</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>1964</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>39.200000000000003</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>1964</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>69.900000000000006</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>1964</v>
       </c>
@@ -3030,7 +3030,7 @@
         <v>154.1</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>1964</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>189.5</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>1964</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>86.6</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>1964</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>86.6</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>1964</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>61.8</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>1964</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>54.3</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>1964</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>63.8</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>1965</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>1965</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>1965</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>36.1</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>1965</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>70.900000000000006</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>1965</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>100.6</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>1965</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>60.6</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>1965</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>96.1</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>1965</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>74.2</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>1965</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>52.9</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>1965</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>1965</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>69.599999999999994</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>1965</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>1966</v>
       </c>
@@ -3315,7 +3315,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>1966</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>1966</v>
       </c>
@@ -3345,7 +3345,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>1966</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>1966</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>42.8</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>1966</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>58.5</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>1966</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>163.1</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>1966</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>79.599999999999994</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>1966</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>89.9</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>1966</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>1966</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>51.2</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>1966</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>47.9</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>1967</v>
       </c>
@@ -3495,7 +3495,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>1967</v>
       </c>
@@ -3510,7 +3510,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>1967</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>1967</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>1967</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>1967</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>1967</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>102.1</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>1967</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>57.5</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>1967</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>26.7</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>1967</v>
       </c>
@@ -3630,7 +3630,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>1967</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>1967</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>39.299999999999997</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>1968</v>
       </c>
@@ -3675,7 +3675,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>1968</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>1968</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>52.4</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>1968</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>104.8</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>1968</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>135.69999999999999</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>1968</v>
       </c>
@@ -3750,7 +3750,7 @@
         <v>90.1</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>1968</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>1968</v>
       </c>
@@ -3780,7 +3780,7 @@
         <v>115.6</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>1968</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>51.6</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>1968</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>100.2</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>1968</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>90.8</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>1968</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>31.6</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>1969</v>
       </c>
@@ -3855,7 +3855,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>1969</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>85.5</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>1969</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>24.8</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>1969</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>1969</v>
       </c>
@@ -3915,7 +3915,7 @@
         <v>58.4</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>1969</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>1969</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>79.900000000000006</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>1969</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>46.5</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>1969</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>70.2</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>1969</v>
       </c>
@@ -3990,7 +3990,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>1969</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>1969</v>
       </c>
@@ -4020,7 +4020,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>1970</v>
       </c>
@@ -4035,7 +4035,7 @@
         <v>47.2</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>1970</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>1970</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>39.4</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>1970</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>56.6</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>1970</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>54.7</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>1970</v>
       </c>
@@ -4110,7 +4110,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>1970</v>
       </c>
@@ -4125,7 +4125,7 @@
         <v>120.8</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>1970</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>159.30000000000001</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>1970</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>51.8</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>1970</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>1970</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>1970</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>60.9</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>1971</v>
       </c>
@@ -4215,7 +4215,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>1971</v>
       </c>
@@ -4230,7 +4230,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>1971</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>1971</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>117.9</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>1971</v>
       </c>
@@ -4275,7 +4275,7 @@
         <v>75.900000000000006</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>1971</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>1971</v>
       </c>
@@ -4305,7 +4305,7 @@
         <v>47.7</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>1971</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>121.2</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>1971</v>
       </c>
@@ -4335,7 +4335,7 @@
         <v>100.8</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>1971</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>82.7</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>1971</v>
       </c>
@@ -4365,7 +4365,7 @@
         <v>78.3</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>1971</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>61.9</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>1972</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>49.2</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>1972</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>1972</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>1972</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>78.8</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>1972</v>
       </c>
@@ -4455,7 +4455,7 @@
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>1972</v>
       </c>
@@ -4470,7 +4470,7 @@
         <v>46.5</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>1972</v>
       </c>
@@ -4485,7 +4485,7 @@
         <v>100.8</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>1972</v>
       </c>
@@ -4500,7 +4500,7 @@
         <v>94.4</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>1972</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>37.4</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>1972</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>1972</v>
       </c>
@@ -4545,7 +4545,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>1972</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>1973</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>1973</v>
       </c>
@@ -4590,7 +4590,7 @@
         <v>59.2</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>1973</v>
       </c>
@@ -4605,7 +4605,7 @@
         <v>56.6</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>1973</v>
       </c>
@@ -4620,7 +4620,7 @@
         <v>72.599999999999994</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>1973</v>
       </c>
@@ -4635,7 +4635,7 @@
         <v>78.900000000000006</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>1973</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>91.1</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>1973</v>
       </c>
@@ -4665,7 +4665,7 @@
         <v>57.7</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>1973</v>
       </c>
@@ -4680,7 +4680,7 @@
         <v>100.7</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>1973</v>
       </c>
@@ -4695,7 +4695,7 @@
         <v>105.4</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>1973</v>
       </c>
@@ -4710,7 +4710,7 @@
         <v>112.1</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>1973</v>
       </c>
@@ -4725,7 +4725,7 @@
         <v>28.9</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>1973</v>
       </c>
@@ -4740,7 +4740,7 @@
         <v>58.6</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>1974</v>
       </c>
@@ -4755,7 +4755,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>1974</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>52.8</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>1974</v>
       </c>
@@ -4785,7 +4785,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>1974</v>
       </c>
@@ -4800,7 +4800,7 @@
         <v>77.400000000000006</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>1974</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>1974</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>53.8</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>1974</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>1974</v>
       </c>
@@ -4860,7 +4860,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>1974</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>91.8</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>1974</v>
       </c>
@@ -4890,7 +4890,7 @@
         <v>64.599999999999994</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>1974</v>
       </c>
@@ -4905,7 +4905,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>1974</v>
       </c>
@@ -4920,7 +4920,7 @@
         <v>40.799999999999997</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>1975</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>1975</v>
       </c>
@@ -4950,7 +4950,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>1975</v>
       </c>
@@ -4965,7 +4965,7 @@
         <v>71.8</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>1975</v>
       </c>
@@ -4980,7 +4980,7 @@
         <v>31.2</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>1975</v>
       </c>
@@ -4995,7 +4995,7 @@
         <v>109.8</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>1975</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>64.8</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>1975</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>137.80000000000001</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>1975</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>66.400000000000006</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>1975</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>87.6</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>1975</v>
       </c>
@@ -5070,7 +5070,7 @@
         <v>140.19999999999999</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>1975</v>
       </c>
@@ -5085,7 +5085,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A313">
         <v>1975</v>
       </c>
@@ -5100,7 +5100,7 @@
         <v>34.4</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>1976</v>
       </c>
@@ -5115,7 +5115,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>1976</v>
       </c>
@@ -5130,7 +5130,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>1976</v>
       </c>
@@ -5145,7 +5145,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A317">
         <v>1976</v>
       </c>
@@ -5160,7 +5160,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A318">
         <v>1976</v>
       </c>
@@ -5175,7 +5175,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>1976</v>
       </c>
@@ -5190,7 +5190,7 @@
         <v>82.6</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>1976</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A321">
         <v>1976</v>
       </c>
@@ -5220,7 +5220,7 @@
         <v>84.8</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>1976</v>
       </c>
@@ -5235,7 +5235,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A323">
         <v>1976</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>79.2</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A324">
         <v>1976</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>55.4</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A325">
         <v>1976</v>
       </c>
@@ -5280,7 +5280,7 @@
         <v>76.599999999999994</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A326">
         <v>1977</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>35.6</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A327">
         <v>1977</v>
       </c>
@@ -5310,7 +5310,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A328">
         <v>1977</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>46.4</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A329">
         <v>1977</v>
       </c>
@@ -5340,7 +5340,7 @@
         <v>32.799999999999997</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A330">
         <v>1977</v>
       </c>
@@ -5355,7 +5355,7 @@
         <v>94.8</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A331">
         <v>1977</v>
       </c>
@@ -5370,7 +5370,7 @@
         <v>92.4</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A332">
         <v>1977</v>
       </c>
@@ -5385,7 +5385,7 @@
         <v>73.599999999999994</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A333">
         <v>1977</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v>43.6</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A334">
         <v>1977</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>33.799999999999997</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A335">
         <v>1977</v>
       </c>
@@ -5430,7 +5430,7 @@
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A336">
         <v>1977</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>101.4</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A337">
         <v>1977</v>
       </c>
@@ -5460,7 +5460,7 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A338">
         <v>1978</v>
       </c>
@@ -5475,7 +5475,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A339">
         <v>1978</v>
       </c>
@@ -5490,7 +5490,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A340">
         <v>1978</v>
       </c>
@@ -5505,7 +5505,7 @@
         <v>24.2</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A341">
         <v>1978</v>
       </c>
@@ -5520,7 +5520,7 @@
         <v>45.4</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A342">
         <v>1978</v>
       </c>
@@ -5535,7 +5535,7 @@
         <v>50.6</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A343">
         <v>1978</v>
       </c>
@@ -5550,7 +5550,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A344">
         <v>1978</v>
       </c>
@@ -5565,7 +5565,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A345">
         <v>1978</v>
       </c>
@@ -5580,7 +5580,7 @@
         <v>90.6</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A346">
         <v>1978</v>
       </c>
@@ -5595,7 +5595,7 @@
         <v>73.2</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A347">
         <v>1978</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>34.6</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A348">
         <v>1978</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>49.4</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A349">
         <v>1978</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A350">
         <v>1979</v>
       </c>
@@ -5655,7 +5655,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A351">
         <v>1979</v>
       </c>
@@ -5670,7 +5670,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A352">
         <v>1979</v>
       </c>
@@ -5685,7 +5685,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A353">
         <v>1979</v>
       </c>
@@ -5700,7 +5700,7 @@
         <v>40.6</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A354">
         <v>1979</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>67.8</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A355">
         <v>1979</v>
       </c>
@@ -5730,7 +5730,7 @@
         <v>86.4</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A356">
         <v>1979</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>85.8</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A357">
         <v>1979</v>
       </c>
@@ -5760,7 +5760,7 @@
         <v>127.4</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A358">
         <v>1979</v>
       </c>
@@ -5775,7 +5775,7 @@
         <v>104.2</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A359">
         <v>1979</v>
       </c>
@@ -5790,7 +5790,7 @@
         <v>78.2</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A360">
         <v>1979</v>
       </c>
@@ -5805,7 +5805,7 @@
         <v>64.2</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A361">
         <v>1979</v>
       </c>
@@ -5820,7 +5820,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A362">
         <v>1980</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A363">
         <v>1980</v>
       </c>
@@ -5850,7 +5850,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A364">
         <v>1980</v>
       </c>
@@ -5865,7 +5865,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A365">
         <v>1980</v>
       </c>
@@ -5880,7 +5880,7 @@
         <v>94.6</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A366">
         <v>1980</v>
       </c>
@@ -5895,7 +5895,7 @@
         <v>41.2</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A367">
         <v>1980</v>
       </c>
@@ -5910,7 +5910,7 @@
         <v>56.2</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A368">
         <v>1980</v>
       </c>
@@ -5925,7 +5925,7 @@
         <v>86.6</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A369">
         <v>1980</v>
       </c>
@@ -5940,7 +5940,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A370">
         <v>1980</v>
       </c>
@@ -5955,7 +5955,7 @@
         <v>82.2</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A371">
         <v>1980</v>
       </c>
@@ -5970,7 +5970,7 @@
         <v>55.4</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A372">
         <v>1980</v>
       </c>
@@ -5985,7 +5985,7 @@
         <v>39.200000000000003</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A373">
         <v>1980</v>
       </c>
@@ -6000,7 +6000,7 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A374">
         <v>1981</v>
       </c>
@@ -6015,7 +6015,7 @@
         <v>32.4</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A375">
         <v>1981</v>
       </c>
@@ -6030,7 +6030,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A376">
         <v>1981</v>
       </c>
@@ -6045,7 +6045,7 @@
         <v>42.8</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A377">
         <v>1981</v>
       </c>
@@ -6060,7 +6060,7 @@
         <v>33.799999999999997</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A378">
         <v>1981</v>
       </c>
@@ -6075,7 +6075,7 @@
         <v>69.599999999999994</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A379">
         <v>1981</v>
       </c>
@@ -6090,7 +6090,7 @@
         <v>134.6</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A380">
         <v>1981</v>
       </c>
@@ -6105,7 +6105,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A381">
         <v>1981</v>
       </c>
@@ -6120,7 +6120,7 @@
         <v>170.8</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A382">
         <v>1981</v>
       </c>
@@ -6135,7 +6135,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A383">
         <v>1981</v>
       </c>
@@ -6150,7 +6150,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A384">
         <v>1981</v>
       </c>
@@ -6165,7 +6165,7 @@
         <v>51.6</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A385">
         <v>1981</v>
       </c>
@@ -6180,7 +6180,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A386">
         <v>1982</v>
       </c>
@@ -6195,7 +6195,7 @@
         <v>32.200000000000003</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A387">
         <v>1982</v>
       </c>
@@ -6210,7 +6210,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A388">
         <v>1982</v>
       </c>
@@ -6225,7 +6225,7 @@
         <v>42.4</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A389">
         <v>1982</v>
       </c>
@@ -6240,7 +6240,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A390">
         <v>1982</v>
       </c>
@@ -6255,7 +6255,7 @@
         <v>56.6</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A391">
         <v>1982</v>
       </c>
@@ -6270,7 +6270,7 @@
         <v>79.599999999999994</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A392">
         <v>1982</v>
       </c>
@@ -6285,7 +6285,7 @@
         <v>61.4</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A393">
         <v>1982</v>
       </c>
@@ -6300,7 +6300,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A394">
         <v>1982</v>
       </c>
@@ -6315,7 +6315,7 @@
         <v>39.799999999999997</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A395">
         <v>1982</v>
       </c>
@@ -6330,7 +6330,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A396">
         <v>1982</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A397">
         <v>1982</v>
       </c>
@@ -6360,7 +6360,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A398">
         <v>1983</v>
       </c>
@@ -6375,7 +6375,7 @@
         <v>36.200000000000003</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A399">
         <v>1983</v>
       </c>
@@ -6390,7 +6390,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A400">
         <v>1983</v>
       </c>
@@ -6405,7 +6405,7 @@
         <v>159.4</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A401">
         <v>1983</v>
       </c>
@@ -6420,7 +6420,7 @@
         <v>57.6</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A402">
         <v>1983</v>
       </c>
@@ -6435,7 +6435,7 @@
         <v>87.2</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A403">
         <v>1983</v>
       </c>
@@ -6450,7 +6450,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A404">
         <v>1983</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A405">
         <v>1983</v>
       </c>
@@ -6480,7 +6480,7 @@
         <v>82.4</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A406">
         <v>1983</v>
       </c>
@@ -6495,7 +6495,7 @@
         <v>95.4</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A407">
         <v>1983</v>
       </c>
@@ -6510,7 +6510,7 @@
         <v>28.2</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A408">
         <v>1983</v>
       </c>
@@ -6525,7 +6525,7 @@
         <v>61.4</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A409">
         <v>1983</v>
       </c>
@@ -6540,7 +6540,7 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A410">
         <v>1984</v>
       </c>
@@ -6555,7 +6555,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A411">
         <v>1984</v>
       </c>
@@ -6570,7 +6570,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A412">
         <v>1984</v>
       </c>
@@ -6585,7 +6585,7 @@
         <v>112.2</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A413">
         <v>1984</v>
       </c>
@@ -6600,7 +6600,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A414">
         <v>1984</v>
       </c>
@@ -6615,7 +6615,7 @@
         <v>51.8</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A415">
         <v>1984</v>
       </c>
@@ -6630,7 +6630,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A416">
         <v>1984</v>
       </c>
@@ -6645,7 +6645,7 @@
         <v>119.6</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A417">
         <v>1984</v>
       </c>
@@ -6660,7 +6660,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A418">
         <v>1984</v>
       </c>
@@ -6675,7 +6675,7 @@
         <v>112.8</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A419">
         <v>1984</v>
       </c>
@@ -6690,7 +6690,7 @@
         <v>43.8</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A420">
         <v>1984</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>74.400000000000006</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A421">
         <v>1984</v>
       </c>
@@ -6720,7 +6720,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A422">
         <v>1985</v>
       </c>
@@ -6735,7 +6735,7 @@
         <v>23.4</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A423">
         <v>1985</v>
       </c>
@@ -6750,7 +6750,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A424">
         <v>1985</v>
       </c>
@@ -6765,7 +6765,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A425">
         <v>1985</v>
       </c>
@@ -6780,7 +6780,7 @@
         <v>37.6</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A426">
         <v>1985</v>
       </c>
@@ -6795,7 +6795,7 @@
         <v>57.8</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A427">
         <v>1985</v>
       </c>
@@ -6810,7 +6810,7 @@
         <v>91.8</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A428">
         <v>1985</v>
       </c>
@@ -6825,7 +6825,7 @@
         <v>68.8</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A429">
         <v>1985</v>
       </c>
@@ -6840,7 +6840,7 @@
         <v>91.2</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A430">
         <v>1985</v>
       </c>
@@ -6855,7 +6855,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A431">
         <v>1985</v>
       </c>
@@ -6870,7 +6870,7 @@
         <v>65.8</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A432">
         <v>1985</v>
       </c>
@@ -6885,7 +6885,7 @@
         <v>58.8</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A433">
         <v>1985</v>
       </c>
@@ -6900,7 +6900,7 @@
         <v>68.8</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A434">
         <v>1986</v>
       </c>
@@ -6915,7 +6915,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A435">
         <v>1986</v>
       </c>
@@ -6930,7 +6930,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A436">
         <v>1986</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A437">
         <v>1986</v>
       </c>
@@ -6960,7 +6960,7 @@
         <v>89.6</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A438">
         <v>1986</v>
       </c>
@@ -6975,7 +6975,7 @@
         <v>85.8</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A439">
         <v>1986</v>
       </c>
@@ -6990,7 +6990,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A440">
         <v>1986</v>
       </c>
@@ -7005,7 +7005,7 @@
         <v>138.80000000000001</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A441">
         <v>1986</v>
       </c>
@@ -7020,7 +7020,7 @@
         <v>90.6</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A442">
         <v>1986</v>
       </c>
@@ -7035,7 +7035,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A443">
         <v>1986</v>
       </c>
@@ -7050,7 +7050,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A444">
         <v>1986</v>
       </c>
@@ -7065,7 +7065,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A445">
         <v>1986</v>
       </c>
@@ -7080,7 +7080,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A446">
         <v>1987</v>
       </c>
@@ -7095,7 +7095,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A447">
         <v>1987</v>
       </c>
@@ -7110,7 +7110,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A448">
         <v>1987</v>
       </c>
@@ -7125,7 +7125,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A449">
         <v>1987</v>
       </c>
@@ -7140,7 +7140,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A450">
         <v>1987</v>
       </c>
@@ -7155,7 +7155,7 @@
         <v>144.80000000000001</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A451">
         <v>1987</v>
       </c>
@@ -7170,7 +7170,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A452">
         <v>1987</v>
       </c>
@@ -7185,7 +7185,7 @@
         <v>78.599999999999994</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A453">
         <v>1987</v>
       </c>
@@ -7200,7 +7200,7 @@
         <v>52.4</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A454">
         <v>1987</v>
       </c>
@@ -7215,7 +7215,7 @@
         <v>27.4</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A455">
         <v>1987</v>
       </c>
@@ -7230,7 +7230,7 @@
         <v>64.8</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A456">
         <v>1987</v>
       </c>
@@ -7245,7 +7245,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A457">
         <v>1987</v>
       </c>
@@ -7260,7 +7260,7 @@
         <v>27.4</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A458">
         <v>1988</v>
       </c>
@@ -7275,7 +7275,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A459">
         <v>1988</v>
       </c>
@@ -7290,7 +7290,7 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A460">
         <v>1988</v>
       </c>
@@ -7305,7 +7305,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A461">
         <v>1988</v>
       </c>
@@ -7320,7 +7320,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A462">
         <v>1988</v>
       </c>
@@ -7335,7 +7335,7 @@
         <v>103.4</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A463">
         <v>1988</v>
       </c>
@@ -7350,7 +7350,7 @@
         <v>97.4</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A464">
         <v>1988</v>
       </c>
@@ -7365,7 +7365,7 @@
         <v>107.8</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A465">
         <v>1988</v>
       </c>
@@ -7380,7 +7380,7 @@
         <v>87.6</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A466">
         <v>1988</v>
       </c>
@@ -7395,7 +7395,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A467">
         <v>1988</v>
       </c>
@@ -7410,7 +7410,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A468">
         <v>1988</v>
       </c>
@@ -7425,7 +7425,7 @@
         <v>48.2</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A469">
         <v>1988</v>
       </c>
@@ -7440,7 +7440,7 @@
         <v>32.4</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A470">
         <v>1989</v>
       </c>
@@ -7455,7 +7455,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A471">
         <v>1989</v>
       </c>
@@ -7470,7 +7470,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A472">
         <v>1989</v>
       </c>
@@ -7485,7 +7485,7 @@
         <v>32.6</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A473">
         <v>1989</v>
       </c>
@@ -7500,7 +7500,7 @@
         <v>48.4</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A474">
         <v>1989</v>
       </c>
@@ -7515,7 +7515,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A475">
         <v>1989</v>
       </c>
@@ -7530,7 +7530,7 @@
         <v>108.6</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A476">
         <v>1989</v>
       </c>
@@ -7545,7 +7545,7 @@
         <v>105.8</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A477">
         <v>1989</v>
       </c>
@@ -7560,7 +7560,7 @@
         <v>119.8</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A478">
         <v>1989</v>
       </c>
@@ -7575,7 +7575,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A479">
         <v>1989</v>
       </c>
@@ -7590,7 +7590,7 @@
         <v>84.8</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A480">
         <v>1989</v>
       </c>
@@ -7605,7 +7605,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A481">
         <v>1989</v>
       </c>
@@ -7620,7 +7620,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A482">
         <v>1990</v>
       </c>
@@ -7635,7 +7635,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A483">
         <v>1990</v>
       </c>
@@ -7650,7 +7650,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A484">
         <v>1990</v>
       </c>
@@ -7665,7 +7665,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A485">
         <v>1990</v>
       </c>
@@ -7680,7 +7680,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A486">
         <v>1990</v>
       </c>
@@ -7695,7 +7695,7 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A487">
         <v>1990</v>
       </c>
@@ -7710,7 +7710,7 @@
         <v>110.4</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A488">
         <v>1990</v>
       </c>
@@ -7725,7 +7725,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A489">
         <v>1990</v>
       </c>
@@ -7740,7 +7740,7 @@
         <v>164.2</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A490">
         <v>1990</v>
       </c>
@@ -7755,7 +7755,7 @@
         <v>91.4</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A491">
         <v>1990</v>
       </c>
@@ -7770,7 +7770,7 @@
         <v>59.4</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A492">
         <v>1990</v>
       </c>
@@ -7785,7 +7785,7 @@
         <v>32.200000000000003</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A493">
         <v>1990</v>
       </c>
@@ -7800,7 +7800,7 @@
         <v>34.6</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A494">
         <v>1991</v>
       </c>
@@ -7815,7 +7815,7 @@
         <v>54.4</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A495">
         <v>1991</v>
       </c>
@@ -7830,7 +7830,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A496">
         <v>1991</v>
       </c>
@@ -7845,7 +7845,7 @@
         <v>32.799999999999997</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A497">
         <v>1991</v>
       </c>
@@ -7860,7 +7860,7 @@
         <v>45.2</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A498">
         <v>1991</v>
       </c>
@@ -7875,7 +7875,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A499">
         <v>1991</v>
       </c>
@@ -7890,7 +7890,7 @@
         <v>151.19999999999999</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A500">
         <v>1991</v>
       </c>
@@ -7905,7 +7905,7 @@
         <v>65.599999999999994</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A501">
         <v>1991</v>
       </c>
@@ -7920,7 +7920,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A502">
         <v>1991</v>
       </c>
@@ -7935,7 +7935,7 @@
         <v>68.400000000000006</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A503">
         <v>1991</v>
       </c>
@@ -7950,7 +7950,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A504">
         <v>1991</v>
       </c>
@@ -7965,7 +7965,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A505">
         <v>1991</v>
       </c>
@@ -7980,7 +7980,7 @@
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A506">
         <v>1992</v>
       </c>
@@ -7995,7 +7995,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A507">
         <v>1992</v>
       </c>
@@ -8010,7 +8010,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A508">
         <v>1992</v>
       </c>
@@ -8025,7 +8025,7 @@
         <v>38.6</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A509">
         <v>1992</v>
       </c>
@@ -8040,7 +8040,7 @@
         <v>121.8</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A510">
         <v>1992</v>
       </c>
@@ -8055,7 +8055,7 @@
         <v>91.8</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A511">
         <v>1992</v>
       </c>
@@ -8070,7 +8070,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A512">
         <v>1992</v>
       </c>
@@ -8085,7 +8085,7 @@
         <v>98.6</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A513">
         <v>1992</v>
       </c>
@@ -8100,7 +8100,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A514">
         <v>1992</v>
       </c>
@@ -8115,7 +8115,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A515">
         <v>1992</v>
       </c>
@@ -8130,7 +8130,7 @@
         <v>108.8</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A516">
         <v>1992</v>
       </c>
@@ -8145,7 +8145,7 @@
         <v>74.599999999999994</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A517">
         <v>1992</v>
       </c>
@@ -8160,7 +8160,7 @@
         <v>35.6</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A518">
         <v>1993</v>
       </c>
@@ -8175,7 +8175,7 @@
         <v>33.799999999999997</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A519">
         <v>1993</v>
       </c>
@@ -8190,7 +8190,7 @@
         <v>43.6</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A520">
         <v>1993</v>
       </c>
@@ -8205,7 +8205,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A521">
         <v>1993</v>
       </c>
@@ -8220,7 +8220,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A522">
         <v>1993</v>
       </c>
@@ -8235,7 +8235,7 @@
         <v>47.8</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A523">
         <v>1993</v>
       </c>
@@ -8250,7 +8250,7 @@
         <v>56.8</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A524">
         <v>1993</v>
       </c>
@@ -8265,7 +8265,7 @@
         <v>72.8</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A525">
         <v>1993</v>
       </c>
@@ -8280,7 +8280,7 @@
         <v>89.2</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A526">
         <v>1993</v>
       </c>
@@ -8295,7 +8295,7 @@
         <v>87.2</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A527">
         <v>1993</v>
       </c>
@@ -8310,7 +8310,7 @@
         <v>77.400000000000006</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A528">
         <v>1993</v>
       </c>
@@ -8325,7 +8325,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A529">
         <v>1993</v>
       </c>
@@ -8340,7 +8340,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A530">
         <v>1994</v>
       </c>
@@ -8355,7 +8355,7 @@
         <v>46.4</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A531">
         <v>1994</v>
       </c>
@@ -8370,7 +8370,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A532">
         <v>1994</v>
       </c>
@@ -8385,7 +8385,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A533">
         <v>1994</v>
       </c>
@@ -8400,7 +8400,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A534">
         <v>1994</v>
       </c>
@@ -8415,7 +8415,7 @@
         <v>86.8</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A535">
         <v>1994</v>
       </c>
@@ -8430,7 +8430,7 @@
         <v>81.599999999999994</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A536">
         <v>1994</v>
       </c>
@@ -8445,7 +8445,7 @@
         <v>91.6</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A537">
         <v>1994</v>
       </c>
@@ -8460,7 +8460,7 @@
         <v>58.2</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A538">
         <v>1994</v>
       </c>
@@ -8475,7 +8475,7 @@
         <v>53.6</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A539">
         <v>1994</v>
       </c>
@@ -8490,7 +8490,7 @@
         <v>51.8</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A540">
         <v>1994</v>
       </c>
@@ -8505,7 +8505,7 @@
         <v>56.2</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A541">
         <v>1994</v>
       </c>
@@ -8520,7 +8520,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A542">
         <v>1995</v>
       </c>
@@ -8535,7 +8535,7 @@
         <v>76.8</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A543">
         <v>1995</v>
       </c>
@@ -8550,7 +8550,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A544">
         <v>1995</v>
       </c>
@@ -8565,7 +8565,7 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A545">
         <v>1995</v>
       </c>
@@ -8580,7 +8580,7 @@
         <v>98.6</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A546">
         <v>1995</v>
       </c>
@@ -8595,7 +8595,7 @@
         <v>51.6</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A547">
         <v>1995</v>
       </c>
@@ -8610,7 +8610,7 @@
         <v>71.8</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A548">
         <v>1995</v>
       </c>
@@ -8625,7 +8625,7 @@
         <v>139.6</v>
       </c>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A549">
         <v>1995</v>
       </c>
@@ -8640,7 +8640,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A550">
         <v>1995</v>
       </c>
@@ -8655,7 +8655,7 @@
         <v>57.4</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A551">
         <v>1995</v>
       </c>
@@ -8670,7 +8670,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A552">
         <v>1995</v>
       </c>
@@ -8685,7 +8685,7 @@
         <v>28.4</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A553">
         <v>1995</v>
       </c>
@@ -8700,7 +8700,7 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A554">
         <v>1996</v>
       </c>
@@ -8715,7 +8715,7 @@
         <v>76.8</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A555">
         <v>1996</v>
       </c>
@@ -8730,7 +8730,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A556">
         <v>1996</v>
       </c>
@@ -8745,7 +8745,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A557">
         <v>1996</v>
       </c>
@@ -8760,7 +8760,7 @@
         <v>44.6</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A558">
         <v>1996</v>
       </c>
@@ -8775,7 +8775,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A559">
         <v>1996</v>
       </c>
@@ -8790,7 +8790,7 @@
         <v>140.80000000000001</v>
       </c>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A560">
         <v>1996</v>
       </c>
@@ -8805,7 +8805,7 @@
         <v>153.80000000000001</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A561">
         <v>1996</v>
       </c>
@@ -8820,7 +8820,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A562">
         <v>1996</v>
       </c>
@@ -8835,7 +8835,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A563">
         <v>1996</v>
       </c>
@@ -8850,7 +8850,7 @@
         <v>49.6</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A564">
         <v>1996</v>
       </c>
@@ -8865,7 +8865,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A565">
         <v>1996</v>
       </c>
@@ -8880,7 +8880,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A566">
         <v>1997</v>
       </c>
@@ -8895,7 +8895,7 @@
         <v>38.6</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A567">
         <v>1997</v>
       </c>
@@ -8910,7 +8910,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A568">
         <v>1997</v>
       </c>
@@ -8925,7 +8925,7 @@
         <v>31.6</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A569">
         <v>1997</v>
       </c>
@@ -8940,7 +8940,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A570">
         <v>1997</v>
       </c>
@@ -8955,7 +8955,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A571">
         <v>1997</v>
       </c>
@@ -8970,7 +8970,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A572">
         <v>1997</v>
       </c>
@@ -8985,7 +8985,7 @@
         <v>44.2</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A573">
         <v>1997</v>
       </c>
@@ -9000,7 +9000,7 @@
         <v>81.400000000000006</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A574">
         <v>1997</v>
       </c>
@@ -9015,7 +9015,7 @@
         <v>96.8</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A575">
         <v>1997</v>
       </c>
@@ -9030,7 +9030,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A576">
         <v>1997</v>
       </c>
@@ -9045,7 +9045,7 @@
         <v>72.400000000000006</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A577">
         <v>1997</v>
       </c>
@@ -9060,7 +9060,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A578">
         <v>1998</v>
       </c>
@@ -9075,7 +9075,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A579">
         <v>1998</v>
       </c>
@@ -9090,7 +9090,7 @@
         <v>24.8</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A580">
         <v>1998</v>
       </c>
@@ -9105,7 +9105,7 @@
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A581">
         <v>1998</v>
       </c>
@@ -9120,7 +9120,7 @@
         <v>74.2</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A582">
         <v>1998</v>
       </c>
@@ -9135,7 +9135,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A583">
         <v>1998</v>
       </c>
@@ -9150,7 +9150,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A584">
         <v>1998</v>
       </c>
@@ -9165,7 +9165,7 @@
         <v>100.8</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A585">
         <v>1998</v>
       </c>
@@ -9180,7 +9180,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A586">
         <v>1998</v>
       </c>
@@ -9195,7 +9195,7 @@
         <v>73.400000000000006</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A587">
         <v>1998</v>
       </c>
@@ -9210,7 +9210,7 @@
         <v>54.8</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A588">
         <v>1998</v>
       </c>
@@ -9225,7 +9225,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A589">
         <v>1998</v>
       </c>
@@ -9240,7 +9240,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A590">
         <v>1999</v>
       </c>
@@ -9255,7 +9255,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A591">
         <v>1999</v>
       </c>
@@ -9270,7 +9270,7 @@
         <v>23.6</v>
       </c>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A592">
         <v>1999</v>
       </c>
@@ -9285,7 +9285,7 @@
         <v>58.6</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A593">
         <v>1999</v>
       </c>
@@ -9300,7 +9300,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A594">
         <v>1999</v>
       </c>
@@ -9315,7 +9315,7 @@
         <v>78.400000000000006</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A595">
         <v>1999</v>
       </c>
@@ -9330,7 +9330,7 @@
         <v>108.4</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A596">
         <v>1999</v>
       </c>
@@ -9345,7 +9345,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A597">
         <v>1999</v>
       </c>
@@ -9360,7 +9360,7 @@
         <v>50.8</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A598">
         <v>1999</v>
       </c>
@@ -9375,7 +9375,7 @@
         <v>56.8</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A599">
         <v>1999</v>
       </c>
@@ -9390,7 +9390,7 @@
         <v>58.6</v>
       </c>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A600">
         <v>1999</v>
       </c>
@@ -9405,7 +9405,7 @@
         <v>56.2</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A601">
         <v>1999</v>
       </c>
@@ -9418,66 +9418,6 @@
       </c>
       <c r="D601">
         <v>66.599999999999994</v>
-      </c>
-    </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A602">
-        <v>2000</v>
-      </c>
-      <c r="B602">
-        <v>601</v>
-      </c>
-      <c r="C602">
-        <f t="shared" si="9"/>
-        <v>601</v>
-      </c>
-      <c r="D602">
-        <v>12.8</v>
-      </c>
-    </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A603">
-        <v>2000</v>
-      </c>
-      <c r="B603">
-        <v>602</v>
-      </c>
-      <c r="C603">
-        <f t="shared" si="9"/>
-        <v>602</v>
-      </c>
-      <c r="D603">
-        <v>11.4</v>
-      </c>
-    </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A604">
-        <v>2000</v>
-      </c>
-      <c r="B604">
-        <v>603</v>
-      </c>
-      <c r="C604">
-        <f t="shared" si="9"/>
-        <v>603</v>
-      </c>
-      <c r="D604">
-        <v>16.399999999999999</v>
-      </c>
-    </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A605">
-        <v>2000</v>
-      </c>
-      <c r="B605">
-        <v>604</v>
-      </c>
-      <c r="C605">
-        <f t="shared" si="9"/>
-        <v>604</v>
-      </c>
-      <c r="D605">
-        <v>84.8</v>
       </c>
     </row>
   </sheetData>
